--- a/wz/expdata/2000.xlsx
+++ b/wz/expdata/2000.xlsx
@@ -77,26 +77,33 @@
     <t>col</t>
   </si>
   <si>
-    <t>D0</t>
-  </si>
-  <si>
     <t>ppb</t>
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D0(e) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,9 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -420,7 +430,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -464,10 +474,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -514,10 +524,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -564,10 +574,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -614,10 +624,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -664,10 +674,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -714,10 +724,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -764,10 +774,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -814,10 +824,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -864,10 +874,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -914,10 +924,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -964,10 +974,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>1960</v>
@@ -1014,10 +1024,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>1960</v>
@@ -1064,10 +1074,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>1960</v>
@@ -1112,8 +1122,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wz/expdata/2000.xlsx
+++ b/wz/expdata/2000.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>cms</t>
   </si>
@@ -414,18 +414,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="15" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="16" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -442,37 +442,40 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -489,40 +492,43 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1">
         <v>2.1</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.12</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.11</v>
       </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K14" si="0">H2/100</f>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L14" si="0">I2/100</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2:L14" si="1">I2/100</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M14" si="1">J2/100</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2:M14" si="2">J2/100</f>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N14" si="2">K2/100</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -539,40 +545,43 @@
         <v>0.4</v>
       </c>
       <c r="F3" s="1">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
         <v>5.23</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.11</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
         <v>5.2300000000000006E-2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="2"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -589,40 +598,43 @@
         <v>0.6</v>
       </c>
       <c r="F4" s="1">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
         <v>9.16</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.11</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.18</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -639,40 +651,43 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="1">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1">
         <v>11.97</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.11</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.25</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>0.1197</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -689,40 +704,43 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
         <v>14.52</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.12</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.32</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <f t="shared" si="0"/>
         <v>0.1452</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -739,40 +757,43 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
         <v>15.59</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.18</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.41</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <f t="shared" si="0"/>
         <v>0.15590000000000001</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>1.8E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -789,40 +810,43 @@
         <v>1.6</v>
       </c>
       <c r="F8" s="1">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="G8" s="1">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
         <v>15.37</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.67</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.61</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>0.1537</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
         <v>6.0999999999999995E-3</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -839,40 +863,43 @@
         <v>1.8</v>
       </c>
       <c r="F9" s="1">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
         <v>11.05</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.31</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.49</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
         <v>0.1105</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -889,40 +916,43 @@
         <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
         <v>6.66</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>1.19</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.53</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>5.3E-3</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -939,40 +969,43 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F11" s="1">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
         <v>-1.55</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.53</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.61</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>-1.55E-2</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>5.3E-3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
         <v>6.0999999999999995E-3</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -989,40 +1022,43 @@
         <v>2.4</v>
       </c>
       <c r="F12" s="1">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
         <v>-9.9700000000000006</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.71</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.88</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
         <v>-9.9700000000000011E-2</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>7.0999999999999995E-3</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="2"/>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1039,40 +1075,43 @@
         <v>2.7</v>
       </c>
       <c r="F13" s="1">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
         <v>-19.100000000000001</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.41</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>-0.191</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>4.0999999999999995E-3</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="2"/>
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1089,41 +1128,44 @@
         <v>3.2</v>
       </c>
       <c r="F14" s="1">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1">
+        <v>2.92</v>
+      </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
         <v>-39.97</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.93</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>2.23</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>-0.3997</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="2"/>
         <v>2.23E-2</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
